--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/每股收益最高前600-主板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/每股收益最高前600-主板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="技术面分析" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484">
   <si>
     <t>股票代码</t>
   </si>
@@ -1391,6 +1391,10 @@
   </si>
   <si>
     <t>深南电路</t>
+  </si>
+  <si>
+    <t>不宜入场
+（错过最佳入场点，当前收缩幅度不够，应继续观察1w）</t>
   </si>
   <si>
     <t>600779.SH</t>
@@ -4084,15 +4088,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -4249,6 +4253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4262,22 +4273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4286,25 +4281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4316,8 +4297,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4333,7 +4322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4341,14 +4330,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4362,7 +4343,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4376,19 +4381,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4479,7 +4483,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4491,7 +4585,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4503,109 +4633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4617,37 +4645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4690,58 +4694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4765,7 +4719,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4784,153 +4773,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4962,7 +4966,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4977,7 +4981,7 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5055,16 +5059,16 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5073,7 +5077,7 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5094,13 +5098,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5232,181 +5236,181 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5457,10 +5461,10 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5565,55 +5569,55 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5622,7 +5626,7 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5631,49 +5635,49 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5697,10 +5701,10 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5718,19 +5722,19 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6060,12 +6064,12 @@
   <sheetPr/>
   <dimension ref="A1:AQ122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="V121" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AE33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71:B71"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -6073,7 +6077,10 @@
     <col min="1" max="1" width="11.9017857142857" customWidth="1"/>
     <col min="2" max="2" width="18.1517857142857" customWidth="1"/>
     <col min="4" max="4" width="16.2142857142857" customWidth="1"/>
+    <col min="14" max="14" width="10.2589285714286" customWidth="1"/>
     <col min="29" max="29" width="12.4910714285714" customWidth="1"/>
+    <col min="41" max="41" width="19.3392857142857" customWidth="1"/>
+    <col min="42" max="42" width="15.3214285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -7657,7 +7664,7 @@
         <v>185.23</v>
       </c>
       <c r="S22" s="138">
-        <v>164.81</v>
+        <v>161.33</v>
       </c>
       <c r="T22" s="138"/>
       <c r="U22" s="138"/>
@@ -7676,7 +7683,7 @@
       </c>
       <c r="AD22" s="160">
         <f>(R22-S22)/R22</f>
-        <v>0.110241321600173</v>
+        <v>0.129028775036441</v>
       </c>
       <c r="AE22" s="160" t="e">
         <f>(T22-U22)/T22</f>
@@ -8174,7 +8181,7 @@
       </c>
       <c r="AQ28" s="208"/>
     </row>
-    <row r="29" ht="101" spans="1:43">
+    <row r="29" ht="44" spans="1:43">
       <c r="A29" s="78" t="s">
         <v>131</v>
       </c>
@@ -8277,11 +8284,11 @@
         <v>135</v>
       </c>
       <c r="AP29" s="218">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="AQ29" s="219"/>
     </row>
-    <row r="30" ht="101" spans="1:43">
+    <row r="30" ht="72" spans="1:43">
       <c r="A30" s="62" t="s">
         <v>136</v>
       </c>
@@ -8385,19 +8392,19 @@
       <c r="AM30" s="178"/>
       <c r="AN30" s="178"/>
       <c r="AO30" s="202" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AP30" s="214">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="AQ30" s="208"/>
     </row>
-    <row r="31" ht="130" spans="1:43">
+    <row r="31" ht="58" spans="1:43">
       <c r="A31" s="70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="72">
         <v>2.05</v>
@@ -8450,7 +8457,7 @@
       <c r="AM31" s="179"/>
       <c r="AN31" s="179"/>
       <c r="AO31" s="215" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AP31" s="216">
         <v>44571</v>
@@ -8459,16 +8466,16 @@
     </row>
     <row r="32" ht="29" spans="1:43">
       <c r="A32" s="78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="80">
         <v>2.05</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="82">
         <v>4</v>
@@ -8582,7 +8589,7 @@
       </c>
       <c r="AN32" s="182"/>
       <c r="AO32" s="52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP32" s="218">
         <v>44578</v>
@@ -8591,16 +8598,16 @@
     </row>
     <row r="33" ht="116" spans="1:43">
       <c r="A33" s="70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" s="72">
         <v>2.04</v>
       </c>
       <c r="D33" s="73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="108"/>
       <c r="F33" s="106">
@@ -8671,16 +8678,16 @@
     </row>
     <row r="34" ht="130" spans="1:43">
       <c r="A34" s="70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" s="72">
         <v>1.98</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="108"/>
       <c r="F34" s="106">
@@ -8727,7 +8734,7 @@
       <c r="AM34" s="179"/>
       <c r="AN34" s="179"/>
       <c r="AO34" s="215" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AP34" s="216">
         <v>44571</v>
@@ -8736,16 +8743,16 @@
     </row>
     <row r="35" ht="44" spans="1:43">
       <c r="A35" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C35" s="64">
         <v>1.97</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="103"/>
       <c r="F35" s="112">
@@ -8765,10 +8772,10 @@
         <v>36.71</v>
       </c>
       <c r="L35" s="143">
-        <v>116.84</v>
+        <v>138</v>
       </c>
       <c r="M35" s="138">
-        <v>56.65</v>
+        <v>88.89</v>
       </c>
       <c r="N35" s="160">
         <f t="shared" si="8"/>
@@ -8776,21 +8783,17 @@
       </c>
       <c r="O35" s="160">
         <f t="shared" si="9"/>
-        <v>0.107583019513865</v>
+        <v>0.244420289855072</v>
       </c>
       <c r="P35" s="160">
         <f t="shared" si="10"/>
-        <v>1.06248896734334</v>
+        <v>0.552480593992575</v>
       </c>
       <c r="Q35" s="138">
-        <v>92.5</v>
-      </c>
-      <c r="R35" s="138">
-        <v>129.2</v>
-      </c>
-      <c r="S35" s="138">
-        <v>108.96</v>
-      </c>
+        <v>127.01</v>
+      </c>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
       <c r="T35" s="173"/>
       <c r="U35" s="173"/>
       <c r="V35" s="138"/>
@@ -8804,11 +8807,11 @@
       </c>
       <c r="AC35" s="160">
         <f t="shared" ref="AC35:AC39" si="11">(L35-Q35)/L35</f>
-        <v>0.208319068812051</v>
-      </c>
-      <c r="AD35" s="166">
+        <v>0.0796376811594203</v>
+      </c>
+      <c r="AD35" s="166" t="e">
         <f t="shared" ref="AD35:AD39" si="12">(R35-S35)/R35</f>
-        <v>0.156656346749226</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="160"/>
       <c r="AF35" s="160" t="e">
@@ -8827,19 +8830,19 @@
       <c r="AM35" s="178"/>
       <c r="AN35" s="178"/>
       <c r="AO35" s="202" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP35" s="214">
-        <v>44557</v>
+        <v>44580</v>
       </c>
       <c r="AQ35" s="208"/>
     </row>
     <row r="36" ht="130" spans="1:43">
       <c r="A36" s="70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="72">
         <v>1.96</v>
@@ -8907,7 +8910,7 @@
       <c r="AM36" s="179"/>
       <c r="AN36" s="179"/>
       <c r="AO36" s="215" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AP36" s="216">
         <v>44571</v>
@@ -8916,10 +8919,10 @@
     </row>
     <row r="37" ht="116" spans="1:43">
       <c r="A37" s="70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="72">
         <v>1.92</v>
@@ -8981,16 +8984,16 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" s="58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="60">
         <v>1.87</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E38" s="116"/>
       <c r="F38" s="117">
@@ -9049,7 +9052,7 @@
       <c r="Z38" s="136"/>
       <c r="AA38" s="136"/>
       <c r="AB38" s="177" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC38" s="159">
         <f t="shared" si="11"/>
@@ -9073,7 +9076,7 @@
       </c>
       <c r="AH38" s="197"/>
       <c r="AI38" s="177" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ38" s="177" t="s">
         <v>53</v>
@@ -9088,10 +9091,10 @@
         <v>53</v>
       </c>
       <c r="AN38" s="177" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO38" s="213" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP38" s="212">
         <v>44553</v>
@@ -9100,10 +9103,10 @@
     </row>
     <row r="39" ht="59" spans="1:43">
       <c r="A39" s="62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="64">
         <v>1.86</v>
@@ -9187,7 +9190,7 @@
       <c r="AM39" s="208"/>
       <c r="AN39" s="208"/>
       <c r="AO39" s="202" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP39" s="220">
         <v>44570</v>
@@ -9196,16 +9199,16 @@
     </row>
     <row r="40" ht="89" spans="1:43">
       <c r="A40" s="70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="83">
         <v>1.82</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="119">
@@ -9252,7 +9255,7 @@
       <c r="AM40" s="203"/>
       <c r="AN40" s="203"/>
       <c r="AO40" s="76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP40" s="222">
         <v>44571</v>
@@ -9261,10 +9264,10 @@
     </row>
     <row r="41" ht="116" spans="1:43">
       <c r="A41" s="70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="83">
         <v>1.77</v>
@@ -9317,7 +9320,7 @@
       <c r="AM41" s="184"/>
       <c r="AN41" s="184"/>
       <c r="AO41" s="76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP41" s="222">
         <v>44571</v>
@@ -9326,10 +9329,10 @@
     </row>
     <row r="42" ht="130" spans="1:43">
       <c r="A42" s="70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C42" s="83">
         <v>1.77</v>
@@ -9382,7 +9385,7 @@
       <c r="AM42" s="184"/>
       <c r="AN42" s="184"/>
       <c r="AO42" s="76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP42" s="222">
         <v>44571</v>
@@ -9391,16 +9394,16 @@
     </row>
     <row r="43" ht="78" spans="1:43">
       <c r="A43" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" s="83">
         <v>1.76</v>
       </c>
       <c r="D43" s="73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E43" s="108"/>
       <c r="F43" s="119">
@@ -9462,7 +9465,7 @@
       <c r="AM43" s="184"/>
       <c r="AN43" s="184"/>
       <c r="AO43" s="76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP43" s="222">
         <v>44571</v>
@@ -9471,10 +9474,10 @@
     </row>
     <row r="44" ht="130" spans="1:43">
       <c r="A44" s="70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C44" s="83">
         <v>1.71</v>
@@ -9527,7 +9530,7 @@
       <c r="AM44" s="184"/>
       <c r="AN44" s="184"/>
       <c r="AO44" s="76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP44" s="222">
         <v>44571</v>
@@ -9536,10 +9539,10 @@
     </row>
     <row r="45" ht="29" spans="1:43">
       <c r="A45" s="58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="84">
         <v>1.69</v>
@@ -9608,7 +9611,7 @@
       <c r="Z45" s="149"/>
       <c r="AA45" s="149"/>
       <c r="AB45" s="185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC45" s="159">
         <f>(L45-Q45)/L45</f>
@@ -9650,7 +9653,7 @@
         <v>53</v>
       </c>
       <c r="AO45" s="223" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP45" s="224">
         <v>44547</v>
@@ -9659,16 +9662,16 @@
     </row>
     <row r="46" ht="130" spans="1:43">
       <c r="A46" s="70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C46" s="83">
         <v>1.67</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E46" s="108"/>
       <c r="F46" s="119">
@@ -9715,7 +9718,7 @@
       <c r="AM46" s="184"/>
       <c r="AN46" s="184"/>
       <c r="AO46" s="76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP46" s="222">
         <v>44571</v>
@@ -9724,16 +9727,16 @@
     </row>
     <row r="47" ht="116" spans="1:43">
       <c r="A47" s="70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" s="83">
         <v>1.65</v>
       </c>
       <c r="D47" s="74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E47" s="110"/>
       <c r="F47" s="119">
@@ -9780,7 +9783,7 @@
       <c r="AM47" s="184"/>
       <c r="AN47" s="203"/>
       <c r="AO47" s="76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP47" s="222">
         <v>44571</v>
@@ -9789,10 +9792,10 @@
     </row>
     <row r="48" ht="116" spans="1:43">
       <c r="A48" s="70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C48" s="83">
         <v>1.64</v>
@@ -9845,7 +9848,7 @@
       <c r="AM48" s="184"/>
       <c r="AN48" s="184"/>
       <c r="AO48" s="76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP48" s="222">
         <v>44571</v>
@@ -9854,10 +9857,10 @@
     </row>
     <row r="49" ht="78" spans="1:43">
       <c r="A49" s="85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C49" s="87">
         <v>1.64</v>
@@ -9944,7 +9947,7 @@
       <c r="AM49" s="186"/>
       <c r="AN49" s="186"/>
       <c r="AO49" s="225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP49" s="226">
         <v>44571</v>
@@ -9953,16 +9956,16 @@
     </row>
     <row r="50" ht="87" spans="1:43">
       <c r="A50" s="70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" s="83">
         <v>1.63</v>
       </c>
       <c r="D50" s="73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E50" s="108"/>
       <c r="F50" s="119">
@@ -10009,7 +10012,7 @@
       <c r="AM50" s="203"/>
       <c r="AN50" s="203"/>
       <c r="AO50" s="76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP50" s="222">
         <v>44571</v>
@@ -10018,10 +10021,10 @@
     </row>
     <row r="51" ht="116" spans="1:43">
       <c r="A51" s="89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C51" s="91">
         <v>1.63</v>
@@ -10078,7 +10081,7 @@
       <c r="Z51" s="151"/>
       <c r="AA51" s="151"/>
       <c r="AB51" s="187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC51" s="168">
         <f t="shared" si="20"/>
@@ -10105,7 +10108,7 @@
       <c r="AM51" s="187"/>
       <c r="AN51" s="187"/>
       <c r="AO51" s="228" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP51" s="229">
         <v>44571</v>
@@ -10114,10 +10117,10 @@
     </row>
     <row r="52" ht="87" spans="1:43">
       <c r="A52" s="70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C52" s="83">
         <v>1.61</v>
@@ -10170,7 +10173,7 @@
       <c r="AM52" s="203"/>
       <c r="AN52" s="203"/>
       <c r="AO52" s="76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP52" s="216">
         <v>44571</v>
@@ -10179,16 +10182,16 @@
     </row>
     <row r="53" ht="116" spans="1:43">
       <c r="A53" s="62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C53" s="93">
         <v>1.6</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E53" s="103"/>
       <c r="F53" s="125">
@@ -10247,7 +10250,7 @@
       <c r="Z53" s="152"/>
       <c r="AA53" s="152"/>
       <c r="AB53" s="188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC53" s="160">
         <f t="shared" si="20"/>
@@ -10271,7 +10274,7 @@
       <c r="AM53" s="205"/>
       <c r="AN53" s="205"/>
       <c r="AO53" s="231" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP53" s="232">
         <v>44578</v>
@@ -10280,16 +10283,16 @@
     </row>
     <row r="54" ht="87" spans="1:43">
       <c r="A54" s="66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B54" s="67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C54" s="94">
         <v>1.58</v>
       </c>
       <c r="D54" s="95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E54" s="126"/>
       <c r="F54" s="127">
@@ -10350,7 +10353,7 @@
       <c r="AM54" s="189"/>
       <c r="AN54" s="189"/>
       <c r="AO54" s="233" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP54" s="234">
         <v>44547</v>
@@ -10359,16 +10362,16 @@
     </row>
     <row r="55" ht="116" spans="1:43">
       <c r="A55" s="70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C55" s="83">
         <v>1.58</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E55" s="108"/>
       <c r="F55" s="119">
@@ -10430,7 +10433,7 @@
       <c r="AM55" s="76"/>
       <c r="AN55" s="203"/>
       <c r="AO55" s="76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP55" s="222">
         <v>44570</v>
@@ -10439,16 +10442,16 @@
     </row>
     <row r="56" ht="87" spans="1:43">
       <c r="A56" s="70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C56" s="83">
         <v>1.53</v>
       </c>
       <c r="D56" s="74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E56" s="74">
         <v>2</v>
@@ -10512,7 +10515,7 @@
       <c r="AM56" s="203"/>
       <c r="AN56" s="203"/>
       <c r="AO56" s="76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP56" s="222">
         <v>44570</v>
@@ -10521,10 +10524,10 @@
     </row>
     <row r="57" ht="116" spans="1:43">
       <c r="A57" s="70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C57" s="83">
         <v>1.52</v>
@@ -10589,7 +10592,7 @@
       <c r="Z57" s="148"/>
       <c r="AA57" s="148"/>
       <c r="AB57" s="184" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC57" s="161">
         <f t="shared" ref="AC57:AC62" si="24">(L57-Q57)/L57</f>
@@ -10607,13 +10610,13 @@
       <c r="AG57" s="161"/>
       <c r="AH57" s="161"/>
       <c r="AI57" s="184" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ57" s="203" t="s">
         <v>53</v>
       </c>
       <c r="AK57" s="203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL57" s="203" t="s">
         <v>53</v>
@@ -10625,7 +10628,7 @@
         <v>53</v>
       </c>
       <c r="AO57" s="76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP57" s="222">
         <v>44557</v>
@@ -10634,16 +10637,16 @@
     </row>
     <row r="58" ht="108" spans="1:43">
       <c r="A58" s="70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C58" s="72">
         <v>1.51</v>
       </c>
       <c r="D58" s="74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="128">
@@ -10705,7 +10708,7 @@
       <c r="AM58" s="110"/>
       <c r="AN58" s="108"/>
       <c r="AO58" s="74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP58" s="222">
         <v>44570</v>
@@ -10714,16 +10717,16 @@
     </row>
     <row r="59" ht="93" spans="1:43">
       <c r="A59" s="89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C59" s="96">
         <v>1.5</v>
       </c>
       <c r="D59" s="97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E59" s="129"/>
       <c r="F59" s="130">
@@ -10774,7 +10777,7 @@
       <c r="Z59" s="155"/>
       <c r="AA59" s="155"/>
       <c r="AB59" s="97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC59" s="170">
         <f t="shared" si="24"/>
@@ -10786,7 +10789,7 @@
       <c r="AG59" s="194"/>
       <c r="AH59" s="194"/>
       <c r="AI59" s="97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ59" s="129"/>
       <c r="AK59" s="129"/>
@@ -10794,7 +10797,7 @@
       <c r="AM59" s="129"/>
       <c r="AN59" s="129"/>
       <c r="AO59" s="92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP59" s="235">
         <v>44548</v>
@@ -10803,10 +10806,10 @@
     </row>
     <row r="60" ht="124" spans="1:43">
       <c r="A60" s="78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C60" s="80">
         <v>1.49</v>
@@ -10871,7 +10874,7 @@
       <c r="Z60" s="156"/>
       <c r="AA60" s="156"/>
       <c r="AB60" s="81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC60" s="171">
         <f t="shared" si="24"/>
@@ -10889,10 +10892,10 @@
       <c r="AG60" s="195"/>
       <c r="AH60" s="195"/>
       <c r="AI60" s="81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ60" s="81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK60" s="81" t="s">
         <v>53</v>
@@ -10901,11 +10904,11 @@
         <v>53</v>
       </c>
       <c r="AM60" s="81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN60" s="113"/>
       <c r="AO60" s="82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP60" s="236">
         <v>44572</v>
@@ -10914,16 +10917,16 @@
     </row>
     <row r="61" ht="108" spans="1:43">
       <c r="A61" s="70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="72">
         <v>1.49</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E61" s="108"/>
       <c r="F61" s="128">
@@ -10982,7 +10985,7 @@
       <c r="Z61" s="154"/>
       <c r="AA61" s="154"/>
       <c r="AB61" s="73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC61" s="169">
         <f t="shared" si="24"/>
@@ -11006,7 +11009,7 @@
       <c r="AM61" s="108"/>
       <c r="AN61" s="108"/>
       <c r="AO61" s="74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP61" s="237">
         <v>44548</v>
@@ -11015,16 +11018,16 @@
     </row>
     <row r="62" ht="108" spans="1:43">
       <c r="A62" s="89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" s="96">
         <v>1.47</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E62" s="129"/>
       <c r="F62" s="130">
@@ -11083,7 +11086,7 @@
       <c r="Z62" s="155"/>
       <c r="AA62" s="155"/>
       <c r="AB62" s="97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC62" s="170">
         <f t="shared" si="24"/>
@@ -11107,7 +11110,7 @@
       <c r="AM62" s="129"/>
       <c r="AN62" s="129"/>
       <c r="AO62" s="92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP62" s="235">
         <v>44548</v>
@@ -11116,10 +11119,10 @@
     </row>
     <row r="63" ht="108" spans="1:43">
       <c r="A63" s="70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C63" s="72">
         <v>1.47</v>
@@ -11187,7 +11190,7 @@
       <c r="AM63" s="108"/>
       <c r="AN63" s="108"/>
       <c r="AO63" s="74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP63" s="237">
         <v>44548</v>
@@ -11196,16 +11199,16 @@
     </row>
     <row r="64" ht="124" spans="1:43">
       <c r="A64" s="62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C64" s="64">
         <v>1.46</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="132"/>
       <c r="F64" s="133">
@@ -11268,7 +11271,7 @@
       <c r="Z64" s="173"/>
       <c r="AA64" s="173"/>
       <c r="AB64" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC64" s="172">
         <f t="shared" ref="AC64:AC80" si="27">(L64-Q64)/L64</f>
@@ -11289,7 +11292,7 @@
       <c r="AG64" s="160"/>
       <c r="AH64" s="160"/>
       <c r="AI64" s="65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ64" s="103"/>
       <c r="AK64" s="103"/>
@@ -11297,7 +11300,7 @@
       <c r="AM64" s="103"/>
       <c r="AN64" s="103"/>
       <c r="AO64" s="98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP64" s="238">
         <v>44572</v>
@@ -11306,10 +11309,10 @@
     </row>
     <row r="65" ht="106" spans="1:43">
       <c r="A65" s="70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C65" s="72">
         <v>1.44</v>
@@ -11401,7 +11404,7 @@
       <c r="AM65" s="108"/>
       <c r="AN65" s="108"/>
       <c r="AO65" s="74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP65" s="237">
         <v>44548</v>
@@ -11410,10 +11413,10 @@
     </row>
     <row r="66" ht="88" spans="1:43">
       <c r="A66" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B66" s="67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C66" s="68">
         <v>1.43</v>
@@ -11485,7 +11488,7 @@
       <c r="AM66" s="105"/>
       <c r="AN66" s="105"/>
       <c r="AO66" s="95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP66" s="261">
         <v>44548</v>
@@ -11494,16 +11497,16 @@
     </row>
     <row r="67" ht="124" spans="1:43">
       <c r="A67" s="62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" s="64">
         <v>1.43</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E67" s="103"/>
       <c r="F67" s="133">
@@ -11581,7 +11584,7 @@
       <c r="AM67" s="103"/>
       <c r="AN67" s="103"/>
       <c r="AO67" s="98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP67" s="238">
         <v>44570</v>
@@ -11590,10 +11593,10 @@
     </row>
     <row r="68" ht="106" spans="1:43">
       <c r="A68" s="89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C68" s="96">
         <v>1.4</v>
@@ -11654,7 +11657,7 @@
       <c r="Z68" s="155"/>
       <c r="AA68" s="155"/>
       <c r="AB68" s="97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC68" s="170">
         <f t="shared" si="27"/>
@@ -11681,7 +11684,7 @@
       <c r="AM68" s="129"/>
       <c r="AN68" s="129"/>
       <c r="AO68" s="92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP68" s="235">
         <v>44548</v>
@@ -11690,16 +11693,16 @@
     </row>
     <row r="69" ht="106" spans="1:43">
       <c r="A69" s="89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C69" s="96">
         <v>1.38</v>
       </c>
       <c r="D69" s="97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69" s="129"/>
       <c r="F69" s="155"/>
@@ -11759,7 +11762,7 @@
       <c r="AM69" s="129"/>
       <c r="AN69" s="129"/>
       <c r="AO69" s="92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP69" s="235">
         <v>44548</v>
@@ -11768,16 +11771,16 @@
     </row>
     <row r="70" ht="106" spans="1:43">
       <c r="A70" s="78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C70" s="80">
         <v>1.38</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E70" s="241"/>
       <c r="F70" s="131">
@@ -11840,7 +11843,7 @@
       <c r="Z70" s="156"/>
       <c r="AA70" s="156"/>
       <c r="AB70" s="81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC70" s="171">
         <f t="shared" si="27"/>
@@ -11862,16 +11865,16 @@
       <c r="AH70" s="195"/>
       <c r="AI70" s="113"/>
       <c r="AJ70" s="81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK70" s="81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL70" s="113"/>
       <c r="AM70" s="113"/>
       <c r="AN70" s="113"/>
       <c r="AO70" s="82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP70" s="236">
         <v>44578</v>
@@ -11880,10 +11883,10 @@
     </row>
     <row r="71" ht="141" spans="1:43">
       <c r="A71" s="62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C71" s="64">
         <v>1.36</v>
@@ -11948,7 +11951,7 @@
       <c r="Z71" s="157"/>
       <c r="AA71" s="157"/>
       <c r="AB71" s="65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC71" s="172">
         <f t="shared" si="27"/>
@@ -11970,10 +11973,10 @@
       <c r="AH71" s="259"/>
       <c r="AI71" s="103"/>
       <c r="AJ71" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK71" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL71" s="65" t="s">
         <v>53</v>
@@ -11982,10 +11985,10 @@
         <v>53</v>
       </c>
       <c r="AN71" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO71" s="98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP71" s="238">
         <v>44578</v>
@@ -11994,10 +11997,10 @@
     </row>
     <row r="72" ht="108" spans="1:43">
       <c r="A72" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B72" s="71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C72" s="72">
         <v>1.35</v>
@@ -12058,7 +12061,7 @@
       <c r="Z72" s="154"/>
       <c r="AA72" s="154"/>
       <c r="AB72" s="73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC72" s="169">
         <f t="shared" si="27"/>
@@ -12082,7 +12085,7 @@
       <c r="AM72" s="108"/>
       <c r="AN72" s="108"/>
       <c r="AO72" s="74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP72" s="237">
         <v>44570</v>
@@ -12091,10 +12094,10 @@
     </row>
     <row r="73" ht="106" spans="1:43">
       <c r="A73" s="66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C73" s="68">
         <v>1.34</v>
@@ -12151,7 +12154,7 @@
       <c r="Z73" s="244"/>
       <c r="AA73" s="244"/>
       <c r="AB73" s="69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC73" s="169">
         <f t="shared" si="27"/>
@@ -12178,7 +12181,7 @@
       <c r="AM73" s="105"/>
       <c r="AN73" s="105"/>
       <c r="AO73" s="95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP73" s="261">
         <v>44548</v>
@@ -12187,16 +12190,16 @@
     </row>
     <row r="74" ht="106" spans="1:43">
       <c r="A74" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C74" s="68">
         <v>1.31</v>
       </c>
       <c r="D74" s="69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E74" s="105"/>
       <c r="F74" s="240">
@@ -12267,7 +12270,7 @@
         <v>40.59</v>
       </c>
       <c r="AB74" s="69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC74" s="169">
         <f t="shared" si="27"/>
@@ -12300,7 +12303,7 @@
       <c r="AM74" s="105"/>
       <c r="AN74" s="105"/>
       <c r="AO74" s="95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP74" s="261">
         <v>44548</v>
@@ -12309,16 +12312,16 @@
     </row>
     <row r="75" ht="124" spans="1:43">
       <c r="A75" s="62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C75" s="64">
         <v>1.31</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E75" s="103"/>
       <c r="F75" s="133">
@@ -12369,7 +12372,7 @@
       <c r="Z75" s="157"/>
       <c r="AA75" s="157"/>
       <c r="AB75" s="65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC75" s="172">
         <f t="shared" si="27"/>
@@ -12399,7 +12402,7 @@
       <c r="AM75" s="103"/>
       <c r="AN75" s="103"/>
       <c r="AO75" s="98" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP75" s="238">
         <v>44578</v>
@@ -12408,10 +12411,10 @@
     </row>
     <row r="76" ht="124" spans="1:43">
       <c r="A76" s="89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="96">
         <v>1.3</v>
@@ -12472,7 +12475,7 @@
       <c r="Z76" s="155"/>
       <c r="AA76" s="155"/>
       <c r="AB76" s="97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC76" s="170">
         <f t="shared" si="27"/>
@@ -12502,7 +12505,7 @@
       <c r="AM76" s="129"/>
       <c r="AN76" s="129"/>
       <c r="AO76" s="92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP76" s="235">
         <v>44548</v>
@@ -12511,10 +12514,10 @@
     </row>
     <row r="77" ht="124" spans="1:43">
       <c r="A77" s="89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B77" s="90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C77" s="96">
         <v>1.29</v>
@@ -12575,7 +12578,7 @@
       <c r="Z77" s="155"/>
       <c r="AA77" s="155"/>
       <c r="AB77" s="97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC77" s="170">
         <f t="shared" si="27"/>
@@ -12605,7 +12608,7 @@
       <c r="AM77" s="129"/>
       <c r="AN77" s="129"/>
       <c r="AO77" s="92" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP77" s="235">
         <v>44548</v>
@@ -12614,16 +12617,16 @@
     </row>
     <row r="78" ht="88" spans="1:43">
       <c r="A78" s="89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B78" s="90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C78" s="96">
         <v>1.29</v>
       </c>
       <c r="D78" s="97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E78" s="129"/>
       <c r="F78" s="155"/>
@@ -12686,7 +12689,7 @@
       <c r="AM78" s="129"/>
       <c r="AN78" s="129"/>
       <c r="AO78" s="92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP78" s="235">
         <v>44548</v>
@@ -12695,16 +12698,16 @@
     </row>
     <row r="79" ht="141" spans="1:43">
       <c r="A79" s="62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C79" s="64">
         <v>1.28</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E79" s="103"/>
       <c r="F79" s="133">
@@ -12763,7 +12766,7 @@
       <c r="Z79" s="157"/>
       <c r="AA79" s="157"/>
       <c r="AB79" s="65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC79" s="172">
         <f t="shared" si="27"/>
@@ -12793,7 +12796,7 @@
       <c r="AM79" s="103"/>
       <c r="AN79" s="103"/>
       <c r="AO79" s="98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP79" s="238">
         <v>44578</v>
@@ -12802,10 +12805,10 @@
     </row>
     <row r="80" ht="122" spans="1:43">
       <c r="A80" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C80" s="60">
         <v>1.27</v>
@@ -12887,7 +12890,7 @@
       <c r="AM80" s="116"/>
       <c r="AN80" s="116"/>
       <c r="AO80" s="262" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP80" s="263">
         <v>44556</v>
@@ -12896,10 +12899,10 @@
     </row>
     <row r="81" ht="141" spans="1:43">
       <c r="A81" s="70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B81" s="71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" s="72">
         <v>1.27</v>
@@ -12967,7 +12970,7 @@
       <c r="AM81" s="108"/>
       <c r="AN81" s="108"/>
       <c r="AO81" s="74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP81" s="237">
         <v>44570</v>
@@ -12976,16 +12979,16 @@
     </row>
     <row r="82" ht="247" spans="1:43">
       <c r="A82" s="58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C82" s="60">
         <v>1.27</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E82" s="116"/>
       <c r="F82" s="242">
@@ -13052,7 +13055,7 @@
       <c r="Z82" s="245"/>
       <c r="AA82" s="245"/>
       <c r="AB82" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC82" s="249">
         <f t="shared" ref="AC82:AC105" si="33">(L82-Q82)/L82</f>
@@ -13076,25 +13079,25 @@
       </c>
       <c r="AH82" s="256"/>
       <c r="AI82" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AJ82" s="61" t="s">
         <v>53</v>
       </c>
       <c r="AK82" s="61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL82" s="61" t="s">
         <v>53</v>
       </c>
       <c r="AM82" s="61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN82" s="61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO82" s="262" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP82" s="263">
         <v>44572</v>
@@ -13103,10 +13106,10 @@
     </row>
     <row r="83" ht="141" spans="1:43">
       <c r="A83" s="70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B83" s="71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C83" s="72">
         <v>1.27</v>
@@ -13167,7 +13170,7 @@
       <c r="Z83" s="154"/>
       <c r="AA83" s="154"/>
       <c r="AB83" s="73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC83" s="169">
         <f t="shared" si="33"/>
@@ -13191,7 +13194,7 @@
       </c>
       <c r="AH83" s="193"/>
       <c r="AI83" s="73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ83" s="108"/>
       <c r="AK83" s="108"/>
@@ -13199,7 +13202,7 @@
       <c r="AM83" s="108"/>
       <c r="AN83" s="108"/>
       <c r="AO83" s="74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AP83" s="237">
         <v>44557</v>
@@ -13208,10 +13211,10 @@
     </row>
     <row r="84" ht="124" spans="1:43">
       <c r="A84" s="89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B84" s="90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C84" s="96">
         <v>1.27</v>
@@ -13268,7 +13271,7 @@
       <c r="Z84" s="155"/>
       <c r="AA84" s="155"/>
       <c r="AB84" s="97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC84" s="170">
         <f t="shared" si="33"/>
@@ -13298,7 +13301,7 @@
       <c r="AM84" s="129"/>
       <c r="AN84" s="129"/>
       <c r="AO84" s="92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP84" s="235">
         <v>44548</v>
@@ -13307,16 +13310,16 @@
     </row>
     <row r="85" ht="124" spans="1:43">
       <c r="A85" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B85" s="79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C85" s="80">
         <v>1.27</v>
       </c>
       <c r="D85" s="81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E85" s="113"/>
       <c r="F85" s="131">
@@ -13403,13 +13406,13 @@
       </c>
       <c r="AH85" s="195"/>
       <c r="AI85" s="81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ85" s="81" t="s">
         <v>53</v>
       </c>
       <c r="AK85" s="81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL85" s="81" t="s">
         <v>53</v>
@@ -13421,7 +13424,7 @@
         <v>53</v>
       </c>
       <c r="AO85" s="82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AP85" s="236">
         <v>44574</v>
@@ -13430,16 +13433,16 @@
     </row>
     <row r="86" ht="36" spans="1:43">
       <c r="A86" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B86" s="71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C86" s="72">
         <v>1.26</v>
       </c>
       <c r="D86" s="73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E86" s="108"/>
       <c r="F86" s="128">
@@ -13494,7 +13497,7 @@
       <c r="Z86" s="154"/>
       <c r="AA86" s="154"/>
       <c r="AB86" s="73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC86" s="169">
         <f t="shared" si="33"/>
@@ -13518,7 +13521,7 @@
       </c>
       <c r="AH86" s="193"/>
       <c r="AI86" s="73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AJ86" s="73" t="s">
         <v>53</v>
@@ -13536,7 +13539,7 @@
         <v>53</v>
       </c>
       <c r="AO86" s="74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP86" s="237">
         <v>44553</v>
@@ -13545,10 +13548,10 @@
     </row>
     <row r="87" ht="88" spans="1:43">
       <c r="A87" s="70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B87" s="71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C87" s="72">
         <v>1.26</v>
@@ -13617,7 +13620,7 @@
       <c r="AM87" s="108"/>
       <c r="AN87" s="108"/>
       <c r="AO87" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP87" s="237">
         <v>44548</v>
@@ -13626,10 +13629,10 @@
     </row>
     <row r="88" ht="88" spans="1:43">
       <c r="A88" s="70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B88" s="71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C88" s="72">
         <v>1.25</v>
@@ -13698,7 +13701,7 @@
       <c r="AM88" s="108"/>
       <c r="AN88" s="108"/>
       <c r="AO88" s="74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP88" s="237">
         <v>44548</v>
@@ -13707,16 +13710,16 @@
     </row>
     <row r="89" ht="124" spans="1:43">
       <c r="A89" s="70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C89" s="72">
         <v>1.24</v>
       </c>
       <c r="D89" s="73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E89" s="108"/>
       <c r="F89" s="128">
@@ -13783,7 +13786,7 @@
       <c r="AM89" s="108"/>
       <c r="AN89" s="108"/>
       <c r="AO89" s="74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP89" s="237">
         <v>44548</v>
@@ -13792,16 +13795,16 @@
     </row>
     <row r="90" ht="176" spans="1:43">
       <c r="A90" s="70" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B90" s="71" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C90" s="72">
         <v>1.23</v>
       </c>
       <c r="D90" s="73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E90" s="108"/>
       <c r="F90" s="128">
@@ -13878,7 +13881,7 @@
       <c r="AM90" s="108"/>
       <c r="AN90" s="108"/>
       <c r="AO90" s="74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP90" s="237">
         <v>44548</v>
@@ -13887,16 +13890,16 @@
     </row>
     <row r="91" ht="176" spans="1:43">
       <c r="A91" s="70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B91" s="71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C91" s="72">
         <v>1.22</v>
       </c>
       <c r="D91" s="73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E91" s="108"/>
       <c r="F91" s="128">
@@ -13975,7 +13978,7 @@
       <c r="AM91" s="108"/>
       <c r="AN91" s="108"/>
       <c r="AO91" s="74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP91" s="237">
         <v>44548</v>
@@ -13984,10 +13987,10 @@
     </row>
     <row r="92" ht="122" spans="1:43">
       <c r="A92" s="85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C92" s="239">
         <v>1.2</v>
@@ -14065,7 +14068,7 @@
       <c r="AM92" s="121"/>
       <c r="AN92" s="121"/>
       <c r="AO92" s="264" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP92" s="265">
         <v>44553</v>
@@ -14074,10 +14077,10 @@
     </row>
     <row r="93" ht="106" spans="1:43">
       <c r="A93" s="89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B93" s="90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C93" s="96">
         <v>1.2</v>
@@ -14146,7 +14149,7 @@
       <c r="AM93" s="129"/>
       <c r="AN93" s="129"/>
       <c r="AO93" s="92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP93" s="235">
         <v>44548</v>
@@ -14155,16 +14158,16 @@
     </row>
     <row r="94" ht="124" spans="1:43">
       <c r="A94" s="70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B94" s="71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C94" s="72">
         <v>1.18</v>
       </c>
       <c r="D94" s="73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E94" s="108"/>
       <c r="F94" s="128">
@@ -14231,7 +14234,7 @@
       <c r="AM94" s="108"/>
       <c r="AN94" s="108"/>
       <c r="AO94" s="74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP94" s="237">
         <v>44548</v>
@@ -14240,16 +14243,16 @@
     </row>
     <row r="95" ht="141" spans="1:43">
       <c r="A95" s="70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B95" s="71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C95" s="72">
         <v>1.18</v>
       </c>
       <c r="D95" s="73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E95" s="108"/>
       <c r="F95" s="128">
@@ -14326,7 +14329,7 @@
       <c r="AM95" s="108"/>
       <c r="AN95" s="108"/>
       <c r="AO95" s="74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP95" s="237">
         <v>44548</v>
@@ -14335,16 +14338,16 @@
     </row>
     <row r="96" ht="106" spans="1:43">
       <c r="A96" s="58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B96" s="59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C96" s="60">
         <v>1.18</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E96" s="116"/>
       <c r="F96" s="242">
@@ -14409,7 +14412,7 @@
       <c r="Z96" s="245"/>
       <c r="AA96" s="245"/>
       <c r="AB96" s="61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC96" s="249">
         <f t="shared" si="33"/>
@@ -14445,10 +14448,10 @@
         <v>53</v>
       </c>
       <c r="AN96" s="61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO96" s="262" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP96" s="263">
         <v>44553</v>
@@ -14457,16 +14460,16 @@
     </row>
     <row r="97" ht="88" spans="1:43">
       <c r="A97" s="89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B97" s="90" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C97" s="96">
         <v>1.17</v>
       </c>
       <c r="D97" s="97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E97" s="129"/>
       <c r="F97" s="155"/>
@@ -14526,7 +14529,7 @@
       <c r="AM97" s="129"/>
       <c r="AN97" s="129"/>
       <c r="AO97" s="92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP97" s="235">
         <v>44548</v>
@@ -14535,10 +14538,10 @@
     </row>
     <row r="98" ht="106" spans="1:43">
       <c r="A98" s="62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C98" s="64">
         <v>1.17</v>
@@ -14604,7 +14607,7 @@
       <c r="AM98" s="103"/>
       <c r="AN98" s="103"/>
       <c r="AO98" s="98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP98" s="238">
         <v>44548</v>
@@ -14613,10 +14616,10 @@
     </row>
     <row r="99" ht="124" spans="1:43">
       <c r="A99" s="89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B99" s="90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C99" s="96">
         <v>1.17</v>
@@ -14673,7 +14676,7 @@
       <c r="Z99" s="155"/>
       <c r="AA99" s="155"/>
       <c r="AB99" s="97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC99" s="170">
         <f t="shared" si="33"/>
@@ -14700,7 +14703,7 @@
       <c r="AM99" s="129"/>
       <c r="AN99" s="129"/>
       <c r="AO99" s="92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP99" s="235">
         <v>44548</v>
@@ -14709,16 +14712,16 @@
     </row>
     <row r="100" ht="124" spans="1:43">
       <c r="A100" s="62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B100" s="63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C100" s="64">
         <v>1.16</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E100" s="103"/>
       <c r="F100" s="133">
@@ -14796,7 +14799,7 @@
       <c r="AM100" s="103"/>
       <c r="AN100" s="103"/>
       <c r="AO100" s="98" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP100" s="238">
         <v>44572</v>
@@ -14805,10 +14808,10 @@
     </row>
     <row r="101" ht="106" spans="1:43">
       <c r="A101" s="62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B101" s="63" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C101" s="64">
         <v>1.16</v>
@@ -14851,7 +14854,7 @@
       <c r="Z101" s="157"/>
       <c r="AA101" s="157"/>
       <c r="AB101" s="65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC101" s="172" t="e">
         <f t="shared" si="33"/>
@@ -14878,7 +14881,7 @@
       <c r="AM101" s="103"/>
       <c r="AN101" s="103"/>
       <c r="AO101" s="98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP101" s="238">
         <v>44548</v>
@@ -14887,16 +14890,16 @@
     </row>
     <row r="102" ht="124" spans="1:43">
       <c r="A102" s="89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C102" s="96">
         <v>1.15</v>
       </c>
       <c r="D102" s="97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E102" s="129"/>
       <c r="F102" s="130">
@@ -14986,7 +14989,7 @@
       <c r="AM102" s="129"/>
       <c r="AN102" s="129"/>
       <c r="AO102" s="92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP102" s="235">
         <v>44548</v>
@@ -14995,16 +14998,16 @@
     </row>
     <row r="103" ht="71" spans="1:43">
       <c r="A103" s="89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B103" s="90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C103" s="96">
         <v>1.15</v>
       </c>
       <c r="D103" s="97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E103" s="129"/>
       <c r="F103" s="155"/>
@@ -15058,7 +15061,7 @@
       <c r="AM103" s="129"/>
       <c r="AN103" s="129"/>
       <c r="AO103" s="92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP103" s="235">
         <v>44548</v>
@@ -15067,16 +15070,16 @@
     </row>
     <row r="104" ht="106" spans="1:43">
       <c r="A104" s="66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C104" s="68">
         <v>1.15</v>
       </c>
       <c r="D104" s="69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E104" s="105"/>
       <c r="F104" s="244"/>
@@ -15130,7 +15133,7 @@
       <c r="AM104" s="105"/>
       <c r="AN104" s="105"/>
       <c r="AO104" s="95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP104" s="261">
         <v>44548</v>
@@ -15139,10 +15142,10 @@
     </row>
     <row r="105" ht="106" spans="1:43">
       <c r="A105" s="66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C105" s="68">
         <v>1.14</v>
@@ -15202,7 +15205,7 @@
       <c r="AM105" s="105"/>
       <c r="AN105" s="105"/>
       <c r="AO105" s="95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP105" s="261">
         <v>44548</v>
@@ -15211,16 +15214,16 @@
     </row>
     <row r="106" ht="141" spans="1:43">
       <c r="A106" s="70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B106" s="71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C106" s="72">
         <v>1.13</v>
       </c>
       <c r="D106" s="73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E106" s="108"/>
       <c r="F106" s="128">
@@ -15282,7 +15285,7 @@
       <c r="AM106" s="108"/>
       <c r="AN106" s="108"/>
       <c r="AO106" s="74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP106" s="237">
         <v>44570</v>
@@ -15291,10 +15294,10 @@
     </row>
     <row r="107" ht="106" spans="1:43">
       <c r="A107" s="89" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B107" s="90" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C107" s="96">
         <v>1.13</v>
@@ -15354,7 +15357,7 @@
       <c r="AM107" s="129"/>
       <c r="AN107" s="129"/>
       <c r="AO107" s="92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP107" s="235">
         <v>44548</v>
@@ -15363,16 +15366,16 @@
     </row>
     <row r="108" ht="106" spans="1:43">
       <c r="A108" s="66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C108" s="68">
         <v>1.13</v>
       </c>
       <c r="D108" s="95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E108" s="126"/>
       <c r="F108" s="240">
@@ -15432,7 +15435,7 @@
       <c r="AM108" s="105"/>
       <c r="AN108" s="105"/>
       <c r="AO108" s="95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP108" s="261">
         <v>44548</v>
@@ -15441,10 +15444,10 @@
     </row>
     <row r="109" ht="88" spans="1:43">
       <c r="A109" s="66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C109" s="68">
         <v>1.13</v>
@@ -15512,7 +15515,7 @@
       <c r="AM109" s="105"/>
       <c r="AN109" s="105"/>
       <c r="AO109" s="95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP109" s="261">
         <v>44548</v>
@@ -15521,16 +15524,16 @@
     </row>
     <row r="110" ht="106" spans="1:43">
       <c r="A110" s="85" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B110" s="86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C110" s="239">
         <v>1.12</v>
       </c>
       <c r="D110" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E110" s="121"/>
       <c r="F110" s="243">
@@ -15581,7 +15584,7 @@
       <c r="Z110" s="246"/>
       <c r="AA110" s="246"/>
       <c r="AB110" s="88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC110" s="252">
         <f t="shared" si="41"/>
@@ -15602,7 +15605,7 @@
       <c r="AM110" s="121"/>
       <c r="AN110" s="121"/>
       <c r="AO110" s="264" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP110" s="265">
         <v>44574</v>
@@ -15611,16 +15614,16 @@
     </row>
     <row r="111" ht="106" spans="1:43">
       <c r="A111" s="89" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B111" s="90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C111" s="96">
         <v>1.12</v>
       </c>
       <c r="D111" s="92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E111" s="123"/>
       <c r="F111" s="130">
@@ -15700,7 +15703,7 @@
       <c r="AM111" s="129"/>
       <c r="AN111" s="129"/>
       <c r="AO111" s="92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP111" s="235">
         <v>44557</v>
@@ -15709,10 +15712,10 @@
     </row>
     <row r="112" ht="141" spans="1:43">
       <c r="A112" s="70" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B112" s="71" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C112" s="72">
         <v>1.1</v>
@@ -15780,7 +15783,7 @@
       <c r="AM112" s="108"/>
       <c r="AN112" s="108"/>
       <c r="AO112" s="74" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AP112" s="237">
         <v>44570</v>
@@ -15789,16 +15792,16 @@
     </row>
     <row r="113" ht="106" spans="1:43">
       <c r="A113" s="62" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B113" s="63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C113" s="64">
         <v>1.1</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E113" s="103"/>
       <c r="F113" s="157"/>
@@ -15856,7 +15859,7 @@
       <c r="AM113" s="103"/>
       <c r="AN113" s="103"/>
       <c r="AO113" s="98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP113" s="238">
         <v>44574</v>
@@ -15865,16 +15868,16 @@
     </row>
     <row r="114" ht="159" spans="1:43">
       <c r="A114" s="66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B114" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C114" s="68">
         <v>1.09</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E114" s="105"/>
       <c r="F114" s="240">
@@ -15942,7 +15945,7 @@
       <c r="AM114" s="105"/>
       <c r="AN114" s="105"/>
       <c r="AO114" s="95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP114" s="261">
         <v>44570</v>
@@ -15951,16 +15954,16 @@
     </row>
     <row r="115" ht="106" spans="1:43">
       <c r="A115" s="62" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B115" s="63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C115" s="64">
         <v>1.08</v>
       </c>
       <c r="D115" s="65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E115" s="103"/>
       <c r="F115" s="133">
@@ -16009,7 +16012,7 @@
       <c r="Z115" s="157"/>
       <c r="AA115" s="157"/>
       <c r="AB115" s="65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC115" s="172">
         <f t="shared" si="43"/>
@@ -16030,7 +16033,7 @@
       <c r="AM115" s="103"/>
       <c r="AN115" s="103"/>
       <c r="AO115" s="98" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP115" s="238">
         <v>44570</v>
@@ -16039,10 +16042,10 @@
     </row>
     <row r="116" ht="106" spans="1:43">
       <c r="A116" s="58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B116" s="59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C116" s="60">
         <v>1.08</v>
@@ -16102,7 +16105,7 @@
       <c r="AM116" s="116"/>
       <c r="AN116" s="116"/>
       <c r="AO116" s="262" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP116" s="263">
         <v>44548</v>
@@ -16111,16 +16114,16 @@
     </row>
     <row r="117" ht="88" spans="1:43">
       <c r="A117" s="89" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B117" s="90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C117" s="96">
         <v>1.07</v>
       </c>
       <c r="D117" s="97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E117" s="129"/>
       <c r="F117" s="130">
@@ -16175,7 +16178,7 @@
       <c r="Z117" s="155"/>
       <c r="AA117" s="155"/>
       <c r="AB117" s="97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC117" s="170">
         <f t="shared" si="43"/>
@@ -16196,7 +16199,7 @@
       <c r="AM117" s="129"/>
       <c r="AN117" s="129"/>
       <c r="AO117" s="92" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP117" s="235">
         <v>44548</v>
@@ -16205,16 +16208,16 @@
     </row>
     <row r="118" ht="106" spans="1:43">
       <c r="A118" s="62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B118" s="63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C118" s="64">
         <v>1.06</v>
       </c>
       <c r="D118" s="65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E118" s="103"/>
       <c r="F118" s="133">
@@ -16290,7 +16293,7 @@
       <c r="AM118" s="103"/>
       <c r="AN118" s="103"/>
       <c r="AO118" s="98" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP118" s="238">
         <v>44571</v>
@@ -16299,10 +16302,10 @@
     </row>
     <row r="119" ht="106" spans="1:43">
       <c r="A119" s="89" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B119" s="90" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C119" s="96">
         <v>1.05</v>
@@ -16357,7 +16360,7 @@
       <c r="Z119" s="155"/>
       <c r="AA119" s="155"/>
       <c r="AB119" s="97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC119" s="170">
         <f t="shared" si="43"/>
@@ -16378,7 +16381,7 @@
       <c r="AM119" s="129"/>
       <c r="AN119" s="129"/>
       <c r="AO119" s="92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP119" s="235">
         <v>44548</v>
@@ -16387,16 +16390,16 @@
     </row>
     <row r="120" ht="106" spans="1:43">
       <c r="A120" s="89" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B120" s="90" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C120" s="96">
         <v>1.05</v>
       </c>
       <c r="D120" s="97" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E120" s="129"/>
       <c r="F120" s="130">
@@ -16445,7 +16448,7 @@
       <c r="Z120" s="155"/>
       <c r="AA120" s="155"/>
       <c r="AB120" s="97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC120" s="170">
         <f t="shared" si="43"/>
@@ -16468,7 +16471,7 @@
       <c r="AM120" s="129"/>
       <c r="AN120" s="129"/>
       <c r="AO120" s="92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP120" s="235">
         <v>44548</v>
@@ -16477,10 +16480,10 @@
     </row>
     <row r="121" ht="106" spans="1:43">
       <c r="A121" s="89" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B121" s="90" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C121" s="96">
         <v>1.04</v>
@@ -16540,7 +16543,7 @@
       <c r="AM121" s="129"/>
       <c r="AN121" s="129"/>
       <c r="AO121" s="92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP121" s="235">
         <v>44548</v>
@@ -16549,10 +16552,10 @@
     </row>
     <row r="122" ht="106" spans="1:43">
       <c r="A122" s="89" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C122" s="96">
         <v>1.03</v>
@@ -16613,7 +16616,7 @@
       <c r="Z122" s="155"/>
       <c r="AA122" s="155"/>
       <c r="AB122" s="97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC122" s="170">
         <f t="shared" si="43"/>
@@ -16634,7 +16637,7 @@
       <c r="AM122" s="129"/>
       <c r="AN122" s="129"/>
       <c r="AO122" s="92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP122" s="235">
         <v>44548</v>
@@ -16683,12 +16686,12 @@
   <sheetPr/>
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -16720,7 +16723,7 @@
   <sheetData>
     <row r="1" spans="1:66">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -16732,13 +16735,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -16758,7 +16761,7 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
@@ -16778,13 +16781,13 @@
       <c r="AO1" s="28"/>
       <c r="AP1" s="28"/>
       <c r="AQ1" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AR1" s="29"/>
       <c r="AS1" s="29"/>
       <c r="AT1" s="29"/>
       <c r="AU1" s="40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AV1" s="40"/>
       <c r="AW1" s="40"/>
@@ -16802,7 +16805,7 @@
       <c r="BI1" s="40"/>
       <c r="BJ1" s="40"/>
       <c r="BK1" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BL1" s="10"/>
       <c r="BM1" s="8"/>
@@ -16818,12 +16821,12 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -16840,12 +16843,12 @@
       <c r="W2" s="16"/>
       <c r="X2" s="23"/>
       <c r="Y2" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
@@ -16866,16 +16869,16 @@
       <c r="AS2" s="29"/>
       <c r="AT2" s="29"/>
       <c r="AU2" s="41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AV2" s="41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AW2" s="43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AX2" s="44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AY2" s="45"/>
       <c r="AZ2" s="45"/>
@@ -16883,7 +16886,7 @@
       <c r="BB2" s="45"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -16894,7 +16897,7 @@
       <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BN2" s="53"/>
     </row>
@@ -16906,182 +16909,182 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="AA3" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="AB3" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="AC3" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="AD3" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="O3" s="17" t="s">
+      <c r="AE3" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF3" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="AG3" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="AH3" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="S3" s="17" t="s">
+      <c r="AI3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="AK3" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="AL3" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="AM3" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB3" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD3" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AF3" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="AG3" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH3" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="AI3" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ3" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK3" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL3" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="AM3" s="30" t="s">
-        <v>451</v>
-      </c>
       <c r="AN3" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO3" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AP3" s="25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AQ3" s="36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AR3" s="29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AS3" s="41" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AT3" s="41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AU3" s="41"/>
       <c r="AV3" s="41"/>
       <c r="AW3" s="43"/>
       <c r="AX3" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AY3" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AZ3" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BA3" s="45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BB3" s="45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BD3" s="48" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BE3" s="48" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BF3" s="51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BG3" s="48" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BI3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BJ3" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="BK3" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BL3" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" s="53"/>
     </row>
     <row r="4" ht="78" customHeight="1" spans="1:66">
       <c r="A4" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B4" s="266" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>49</v>
@@ -17193,7 +17196,7 @@
         <v>3.4657</v>
       </c>
       <c r="AN4" s="35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO4" s="37">
         <f>(AF4+AG4+AH4+AI4)/4</f>
@@ -17243,13 +17246,13 @@
         <v>1</v>
       </c>
       <c r="BE4" s="50" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BF4" s="52" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BG4" s="52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BH4" s="50"/>
       <c r="BI4" s="50"/>
@@ -17262,7 +17265,7 @@
         <v>9.86653956148713</v>
       </c>
       <c r="BM4" s="54" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BN4" s="55">
         <v>44578</v>
@@ -17346,7 +17349,7 @@
         <v>603297</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -17415,10 +17418,10 @@
     <row r="7" spans="1:66">
       <c r="A7" s="5"/>
       <c r="B7" s="267" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -17487,10 +17490,10 @@
     <row r="8" spans="1:66">
       <c r="A8" s="5"/>
       <c r="B8" s="267" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -17559,10 +17562,10 @@
     <row r="9" spans="1:66">
       <c r="A9" s="5"/>
       <c r="B9" s="267" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
